--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,12 +247,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.77734375" customWidth="true"/>
+    <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29178600680401212</v>
+        <v>0.29178299214627668</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29185701736701497</v>
+        <v>0.29186138208126944</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1.4762675834509195e-06</v>
+        <v>2.3595726214639821e-06</v>
       </c>
       <c r="E3" s="0">
-        <v>1.3559811774645085e-05</v>
+        <v>1.3806319791344882e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>8.5144929397928562e-06</v>
+        <v>9.7888349710433733e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>7.1106540867688493e-06</v>
+        <v>7.1052558514046831e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.0803363092891119e-06</v>
+        <v>-2.0300018141000685e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>9.9966054220055232e-06</v>
+        <v>9.9957121919660272e-06</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-3.8440414887597196e-05</v>
+        <v>-3.8440460214672623e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29174870802374969</v>
+        <v>0.2916641348776583</v>
       </c>
       <c r="C4" s="0">
-        <v>-7.6481131644324065e-05</v>
+        <v>-0.00010877464485060001</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.0748295612404672e-06</v>
+        <v>1.0737927694953545e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>1.521556839538163e-06</v>
+        <v>1.5057086485288347e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>4.0213330961853974e-06</v>
+        <v>4.0172445080983587e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-1.6207636369388106e-05</v>
+        <v>-1.6176229320697142e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-2.5998650352764197e-05</v>
+        <v>-2.6387390933271086e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>6.5143758994912204e-06</v>
+        <v>6.5149885434268029e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28988077296083331</v>
+        <v>0.28987387982719637</v>
       </c>
       <c r="C5" s="0">
-        <v>9.8520661361001919e-05</v>
+        <v>0.00012772283372362172</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00021484167567026985</v>
+        <v>-0.00021307895389364792</v>
       </c>
       <c r="E5" s="0">
-        <v>-2.7517844125760818e-05</v>
+        <v>-2.7662152928580261e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-8.6462596319549566e-05</v>
+        <v>-8.7449400329467963e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>-8.3169531426162153e-05</v>
+        <v>-8.307157092326467e-05</v>
       </c>
       <c r="H5" s="0">
-        <v>5.3162990235734187e-08</v>
+        <v>1.7124285520349684e-08</v>
       </c>
       <c r="I5" s="0">
-        <v>-1.9178612216839299e-05</v>
+        <v>-1.9168676207425209e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-4.6872919140517055e-07</v>
+        <v>-4.6883142457154747e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29730268215893935</v>
+        <v>0.29728788357102232</v>
       </c>
       <c r="C6" s="0">
-        <v>0.003546808771555535</v>
+        <v>0.0035438061671107086</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.0266945623450109e-06</v>
+        <v>-1.0267091907639591e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-2.5772890979945482e-05</v>
+        <v>-2.5758595455676333e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.4908222997543561e-05</v>
+        <v>-1.4893459827310566e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00020572031084912127</v>
+        <v>-0.00020568298474944261</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-6.4645882180691672e-07</v>
+        <v>-6.4664842497341724e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29436549450356009</v>
+        <v>0.2943571668197531</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00086178101048086958</v>
+        <v>-0.00086074954225651981</v>
       </c>
       <c r="E7" s="0">
-        <v>-3.1359254323889628e-05</v>
+        <v>-3.1174351252513624e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0002522661911538882</v>
+        <v>-0.00025131530621522543</v>
       </c>
       <c r="G7" s="0">
-        <v>1.3534630169208111e-05</v>
+        <v>1.3544975560772992e-05</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1.8744315276260606e-05</v>
+        <v>1.8745549662601433e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>6.5223121159141417e-05</v>
+        <v>6.5223056350594e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.31174871933908116</v>
+        <v>0.31159226769167608</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0036238829607139851</v>
+        <v>0.0036036360274147613</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-3.1830934694771544e-09</v>
+        <v>-3.1860019580963294e-09</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.000132851910403376</v>
+        <v>-0.00013282337162871512</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.7706308070353066e-07</v>
+        <v>-2.7707971599046894e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00029544464867109271</v>
+        <v>-0.00029537013203064329</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>8.7167581280245265e-06</v>
+        <v>8.717150584702793e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.30232602047617529</v>
+        <v>0.30219179259668422</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>3.2208031811905765e-05</v>
+        <v>3.5307352526226573e-05</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00051335699072244448</v>
+        <v>-0.00051305382724797473</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0031768372366619475</v>
+        <v>-0.0031752528683015764</v>
       </c>
       <c r="G9" s="0">
-        <v>2.6215912528906692e-05</v>
+        <v>2.6276026484725776e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-8.1113301129545759e-05</v>
+        <v>-8.1046548038750174e-05</v>
       </c>
       <c r="I9" s="0">
-        <v>8.6339473302250007e-06</v>
+        <v>8.6391781603404808e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1.8406019912542426e-05</v>
+        <v>1.8405657174702661e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.28602852952311497</v>
+        <v>0.28553783518840498</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0098278819918158535</v>
+        <v>0.010053829104259407</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-6.5432943597937504e-07</v>
+        <v>-6.5365800858024586e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00012895187433994339</v>
+        <v>-0.00012870482215211919</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>4.1117286020924004e-06</v>
+        <v>4.1120021359029926e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>1.6231887211166246e-05</v>
+        <v>1.6422858061990055e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0014604349440715831</v>
+        <v>-0.0014679448519208905</v>
       </c>
       <c r="K10" s="0">
-        <v>3.5813442346710467e-06</v>
+        <v>3.5817156522899296e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.27628194586680316</v>
+        <v>0.27591545651503008</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0048803905116946555</v>
+        <v>0.004877419222101268</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00042636470736914502</v>
+        <v>-0.00042312768983746919</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0030300004925413512</v>
+        <v>-0.0030141608003640438</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0001246496730708364</v>
+        <v>0.00012399599176515742</v>
       </c>
       <c r="H11" s="0">
-        <v>-1.6646530914961686e-05</v>
+        <v>-1.5969713664545685e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00043404085431813128</v>
+        <v>-0.00043501647903069259</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0013621139556403428</v>
+        <v>-0.0013621153367591732</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.25126083579217195</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.031647935276200745</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6.410945106880693e-06</v>
+      </c>
+      <c r="F12" s="0">
+        <v>3.5132842350755586e-07</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1.0961386728040283e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.00014009975373977486</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>4.7301328669480114e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,7 +397,7 @@
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
     <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29178299214627668</v>
+        <v>0.29179226279495979</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29186138208126944</v>
+        <v>0.29186746100380839</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>2.3595726214639821e-06</v>
+        <v>1.8542086985259632e-06</v>
       </c>
       <c r="E3" s="0">
-        <v>1.3806319791344882e-05</v>
+        <v>1.3724531619928479e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>9.7888349710433733e-06</v>
+        <v>9.3654650331545819e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>7.1052558514046831e-06</v>
+        <v>7.0989226074042061e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.0300018141000685e-06</v>
+        <v>-2.0466998714683481e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>9.9957121919660272e-06</v>
+        <v>9.9864353325789509e-06</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-3.8440460214672623e-05</v>
+        <v>-3.8440428327235487e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2916641348776583</v>
+        <v>0.29164900903239455</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00010877464485060001</v>
+        <v>-0.00011684241091962053</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.0737927694953545e-06</v>
+        <v>1.0742720038498415e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>1.5057086485288347e-06</v>
+        <v>1.5028798051572031e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>4.0172445080983587e-06</v>
+        <v>4.0080546433667531e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-1.6176229320697142e-05</v>
+        <v>-1.6168816159817635e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-2.6387390933271086e-05</v>
+        <v>-2.839381197442847e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>6.5149885434268029e-06</v>
+        <v>6.5148617288124377e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28987387982719637</v>
+        <v>0.28980381719069837</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00012772283372362172</v>
+        <v>0.00011091371220711117</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00021307895389364792</v>
+        <v>-0.00021310065418019526</v>
       </c>
       <c r="E5" s="0">
-        <v>-2.7662152928580261e-05</v>
+        <v>-2.7804467888378361e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-8.7449400329467963e-05</v>
+        <v>-8.8442947398250242e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>-8.307157092326467e-05</v>
+        <v>-8.3043796802031959e-05</v>
       </c>
       <c r="H5" s="0">
-        <v>1.7124285520349684e-08</v>
+        <v>-1.7859837275242688e-08</v>
       </c>
       <c r="I5" s="0">
-        <v>-1.9168676207425209e-05</v>
+        <v>-1.916599049276357e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-4.6883142457154747e-07</v>
+        <v>-4.6883653054274887e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29728788357102232</v>
+        <v>0.29726112611249256</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0035438061671107086</v>
+        <v>0.0035629942037536753</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.0267091907639591e-06</v>
+        <v>-1.0266260584475226e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-2.5758595455676333e-05</v>
+        <v>-2.5637640801486027e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.4893459827310566e-05</v>
+        <v>-1.4764102744501625e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00020568298474944261</v>
+        <v>-0.00020533934674605791</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-6.4664842497341724e-07</v>
+        <v>-6.4675596583851913e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.2943571668197531</v>
+        <v>0.29437503607883669</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00086074954225651981</v>
+        <v>-0.0008549707906433464</v>
       </c>
       <c r="E7" s="0">
-        <v>-3.1174351252513624e-05</v>
+        <v>-2.9603111036203257e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00025131530621522543</v>
+        <v>-0.0002433817024512486</v>
       </c>
       <c r="G7" s="0">
-        <v>1.3544975560772992e-05</v>
+        <v>1.3499925040142658e-05</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1.8745549662601433e-05</v>
+        <v>1.8743815564326996e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>6.5223056350594e-05</v>
+        <v>6.5222720858237881e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.31159226769167608</v>
+        <v>0.31230921192023797</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0036036360274147613</v>
+        <v>0.0037046621696020703</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-3.1860019580963294e-09</v>
+        <v>-3.1580252179864537e-09</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00013282337162871512</v>
+        <v>-0.00013292359512368301</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.7707971599046894e-07</v>
+        <v>-2.7689253101318079e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00029537013203064329</v>
+        <v>-0.00029562706290843841</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>8.717150584702793e-06</v>
+        <v>8.7154096631292255e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.30219179259668422</v>
+        <v>0.30282083388065162</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>3.5307352526226573e-05</v>
+        <v>2.1443476674033546e-05</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00051305382724797473</v>
+        <v>-0.00051410867745609924</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0031752528683015764</v>
+        <v>-0.0031805662487318139</v>
       </c>
       <c r="G9" s="0">
-        <v>2.6276026484725776e-05</v>
+        <v>2.6001505846019762e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-8.1046548038750174e-05</v>
+        <v>-8.1272939929822767e-05</v>
       </c>
       <c r="I9" s="0">
-        <v>8.6391781603404808e-06</v>
+        <v>8.6099352897058537e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1.8405657174702661e-05</v>
+        <v>1.8407236345219236e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.28553783518840498</v>
+        <v>0.2862963924045146</v>
       </c>
       <c r="C10" s="0">
-        <v>0.010053829104259407</v>
+        <v>0.0099998691646762412</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-6.5365800858024586e-07</v>
+        <v>-6.5227151097407675e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00012870482215211919</v>
+        <v>-0.00012980797942276954</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>4.1120021359029926e-06</v>
+        <v>4.1131995536310406e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>1.6422858061990055e-05</v>
+        <v>1.5528159223076883e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0014679448519208905</v>
+        <v>-0.001433603232468669</v>
       </c>
       <c r="K10" s="0">
-        <v>3.5817156522899296e-06</v>
+        <v>3.5816851369219194e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.27591545651503008</v>
+        <v>0.2762289757314571</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.004877419222101268</v>
+        <v>0.0048321922178740963</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00042312768983746919</v>
+        <v>-0.00043751936463965108</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0030141608003640438</v>
+        <v>-0.0030849944812885231</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00012399599176515742</v>
+        <v>0.00012403445143522137</v>
       </c>
       <c r="H11" s="0">
-        <v>-1.5969713664545685e-05</v>
+        <v>-1.898561653444893e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00043501647903069259</v>
+        <v>-0.00043485011709483407</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0013621153367591732</v>
+        <v>-0.0013621117681771322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.25126083579217195</v>
+        <v>0.24861383622553637</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.031647935276200745</v>
+        <v>-0.037237013904449029</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>6.410945106880693e-06</v>
+        <v>6.4539705208214942e-06</v>
       </c>
       <c r="F12" s="0">
-        <v>3.5132842350755586e-07</v>
+        <v>0.00038211541771053991</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>1.0961386728040283e-06</v>
+        <v>0.00023722452089879672</v>
       </c>
       <c r="I12" s="0">
-        <v>0.00014009975373977486</v>
+        <v>-0.0055527728036201263</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>4.7301328669480114e-06</v>
+        <v>7.3755890941384905e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.22298666992131144</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.048892350287329911</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0020001605861306973</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.0026624519378647053</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.00026490316490992532</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-4.5607956709999734e-05</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0015227182571524158</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.0041516293543783223</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.023494526634056045</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.21993495027063123</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-1.2883755895996367e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-1.5856611301217835e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-1.1105204686242022e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.005907348181693352</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.0995417540349273e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29179226279495979</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29186746100380839</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29164900903239455</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28980381719069837</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.29726112611249256</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.29437503607883669</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.31230921192023797</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.30282083388065162</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.2862963924045146</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.2762289757314571</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.24861383622553637</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.22298666992131144</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.023494526634056045</v>
+        <v>0.019136031265677367</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.21993495027063123</v>
+        <v>-0.21899276607181045</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-1.2883755895996367e-05</v>
+        <v>-1.3405121492886951e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-1.5856611301217835e-05</v>
+        <v>-0.00089152810768513798</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-1.1105204686242022e-06</v>
+        <v>-0.0025505827730592208</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.005907348181693352</v>
+        <v>-0.0098594677646213214</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.0995417540349273e-07</v>
+        <v>0.00017842891111052861</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.070348154594443435</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.15597930414956948</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0028243485757548071</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.010039771297615912</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0049477781151495885</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.00185006623833886</v>
       </c>
     </row>
   </sheetData>
